--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2738955.112361383</v>
+        <v>2873023.683567497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577126</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5216861.699993087</v>
+        <v>5511760.302019307</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5466725181081</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>363.8358429657458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897923</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>12.9509012838934</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>96.34933765345851</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.7797911851068</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>160.962541995739</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.42500249587262</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>22.12501661004335</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>198.7705139016733</v>
+        <v>176.1379046370126</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>60.43371561435711</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.9311777326969</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6899789445808</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>101.992961581339</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>220.2636708582391</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.4833224169706</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>28.16874740712048</v>
       </c>
     </row>
     <row r="17">
@@ -2002,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.9890678524842</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>12.40917645230056</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2242,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>23.52708430670831</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>47.97616502622241</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2381,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>168.9164623971668</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>222.1424306436064</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>8.209635605837869</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>199.079600598012</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2953,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.3090588355862</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -3004,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>91.52886609957531</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>32.31395773011856</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,10 +3246,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.9332546069154</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>73.26545632971501</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.9815308269506</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>47.59708018839068</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3740,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>178.7450812984551</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>124.2290557831219</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>120.6429778048368</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>47.57397284855609</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4138,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>53.31896615083613</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1416.774797953253</v>
+        <v>526.2428153423242</v>
       </c>
       <c r="C2" t="n">
-        <v>1393.914472006957</v>
+        <v>503.3824893960284</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.35217653412</v>
+        <v>484.1302726214328</v>
       </c>
       <c r="E2" t="n">
-        <v>866.3752366819779</v>
+        <v>462.1937368096944</v>
       </c>
       <c r="F2" t="n">
-        <v>441.2510548713781</v>
+        <v>441.1099590394987</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>517.6410595347468</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>977.2289161310173</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533649</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>955.0676404304086</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>947.3880456385599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1432.582758204378</v>
+        <v>946.0911796338543</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>517.6410595347468</v>
       </c>
       <c r="M3" t="n">
-        <v>475.2419029331441</v>
+        <v>996.579983777176</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>1475.518908019605</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1475.518908019605</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.9973335937801</v>
+        <v>533.8096550795942</v>
       </c>
       <c r="C4" t="n">
-        <v>299.9973335937801</v>
+        <v>361.8370919585102</v>
       </c>
       <c r="D4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.755373489931</v>
       </c>
       <c r="E4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.755373489931</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>348.755373489931</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>76.20565529896515</v>
+        <v>96.19346351647553</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.902165973849</v>
+        <v>1192.882288656113</v>
       </c>
       <c r="W4" t="n">
-        <v>830.0497621463624</v>
+        <v>1192.882288656113</v>
       </c>
       <c r="X4" t="n">
-        <v>587.4858655921674</v>
+        <v>950.3183921019178</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.1633023058457</v>
+        <v>723.9756237916598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>420.2118856597648</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C5" t="n">
-        <v>397.351559713469</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D5" t="n">
-        <v>378.0993429388733</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>932.027809635875</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>932.027809635875</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>932.027809635875</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1520.30675795911</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1520.30675795911</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1123.915408259457</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X5" t="n">
-        <v>712.1954094272046</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.898543422499</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L6" t="n">
-        <v>36.91199246082674</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="M6" t="n">
-        <v>36.91199246082674</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="N6" t="n">
-        <v>393.2225928484407</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.8887665676972</v>
+        <v>548.761739098607</v>
       </c>
       <c r="C7" t="n">
-        <v>302.8887665676972</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="D7" t="n">
-        <v>302.8887665676972</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6805607205508</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V7" t="n">
-        <v>870.229311894705</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W7" t="n">
-        <v>595.376908067218</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X7" t="n">
-        <v>352.8130115130231</v>
+        <v>965.2704761209305</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.8130115130231</v>
+        <v>738.9277078106726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.36159051154</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.501264565245</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.249047790649</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>950.4838058662885</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.466416767372</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.169550762666</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023296</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023296</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>937.0648213978343</v>
+        <v>543.4296944263983</v>
       </c>
       <c r="C10" t="n">
-        <v>765.0922582767503</v>
+        <v>543.4296944263983</v>
       </c>
       <c r="D10" t="n">
-        <v>601.775485403521</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E10" t="n">
-        <v>435.5672795563745</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>263.7055053309349</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>97.44853562516704</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>97.44853562516704</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>239.8047369801043</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>594.4940582745251</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>985.6798532447758</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1628.425962247645</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1628.425962247645</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1353.573558420158</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X10" t="n">
-        <v>1353.573558420158</v>
+        <v>959.9384314487219</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.2307901099</v>
+        <v>733.5956631384639</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1154.145610048728</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1154.145610048728</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.145610048728</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>728.1686701965854</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1686701965854</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397015</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2229.072890214134</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3126.065481031254</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149978</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149978</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194611</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791023</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917273</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.05124321762</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1979.331244385367</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1573.993974340258</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299957</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299957</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299957</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M12" t="n">
-        <v>72.48424976299957</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N12" t="n">
-        <v>275.4928852935398</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.3185871095232</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C13" t="n">
-        <v>244.3460239884391</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D13" t="n">
-        <v>244.3460239884391</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E13" t="n">
-        <v>244.3460239884391</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299957</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.478888179296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1912.139540405195</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1631.9550919055</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.243624513529</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.391220686042</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X13" t="n">
-        <v>832.8273241318468</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y13" t="n">
-        <v>606.4845558215889</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1658.858122623187</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1658.858122623187</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.565501808187</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>809.5885619560449</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.0877085798951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>1830.227306515739</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2727.219897332859</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>3624.212488149978</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149978</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149978</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149978</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790413</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.683949090761</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2064.195392668297</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1658.858122623187</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425907</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425907</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425907</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>438.0145025789074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.007093396027</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.007093396027</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.007093396027</v>
+        <v>1853.966407265231</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.7477638123592</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C16" t="n">
-        <v>576.7477638123592</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D16" t="n">
-        <v>576.7477638123592</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E16" t="n">
-        <v>410.602993694207</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1792.384268608336</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1510.672801216365</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1235.820397388878</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X16" t="n">
-        <v>993.2565008346827</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.9137325244247</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,43 +5503,43 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757484</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195025</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614083</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100784</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251596</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164568</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>739.0807229905524</v>
       </c>
       <c r="C19" t="n">
-        <v>552.7245472657505</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D19" t="n">
-        <v>552.7245472657505</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>929.2466917026181</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5759,25 +5761,25 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.0932463474637</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>436.1206832263797</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>436.1206832263797</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
         <v>412.355951603442</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.018283751469</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.165879923982</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="X22" t="n">
-        <v>1024.601983369787</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y22" t="n">
-        <v>798.2592150595294</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.856391133499</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6175,22 +6177,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1364.670603484896</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1089.818199657409</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>847.2543031032136</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6226,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
         <v>3444.155406100785</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1680.682846292257</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>786.8947875232845</v>
+        <v>869.8257932127802</v>
       </c>
       <c r="C28" t="n">
-        <v>614.9222244022005</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D28" t="n">
-        <v>614.9222244022005</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E28" t="n">
-        <v>448.7140185550541</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F28" t="n">
-        <v>276.8522443296145</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>110.5952746238466</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1864.451574370707</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>1584.267125871012</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.81982492729</v>
+        <v>1302.555658479041</v>
       </c>
       <c r="W28" t="n">
-        <v>1445.967421099803</v>
+        <v>1302.555658479041</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.403524545608</v>
+        <v>1059.991761924846</v>
       </c>
       <c r="Y28" t="n">
-        <v>977.0607562353503</v>
+        <v>1059.991761924846</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,37 +6451,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6497,10 +6499,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.167063056836</v>
+        <v>1125.509546729146</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>953.5369836080615</v>
       </c>
       <c r="D31" t="n">
         <v>850.1944999357522</v>
@@ -6652,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.749332150584</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.896928323097</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.333031768902</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.333031768902</v>
+        <v>1315.675515441211</v>
       </c>
     </row>
     <row r="32">
@@ -6704,19 +6706,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1983.783825177544</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6777,13 +6779,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1801.283937336665</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>882.9456501749507</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>544.7648812067202</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>1073.111618887016</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6953,19 +6955,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>275.974508780231</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>275.974508780231</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>1112.773316863137</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>440.421457337036</v>
+        <v>786.1193363033792</v>
       </c>
       <c r="C37" t="n">
-        <v>440.421457337036</v>
+        <v>614.1467731822952</v>
       </c>
       <c r="D37" t="n">
-        <v>440.421457337036</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>976.2853050154449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>648.6278400003578</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>648.6278400003578</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>440.3726934784146</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="C40" t="n">
-        <v>440.3726934784146</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>488.4505522545668</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>322.2423464074203</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>150.3805721819807</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>150.3805721819807</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>150.3805721819807</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1013.905856960946</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1803.659080495272</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1623.108493325116</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1199.815872510116</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1445.298803788845</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>2342.291394605965</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>2342.291394605965</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605965</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763893</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268076</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664165</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3040.564713664165</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.564713664165</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2628.844714831912</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2223.507444786802</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>72.48424976299957</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O42" t="n">
-        <v>961.9655277744712</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1678.163244812969</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.7369761063553</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>341.7644129852713</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D43" t="n">
-        <v>341.7644129852713</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E43" t="n">
-        <v>341.7644129852713</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F43" t="n">
-        <v>341.7644129852713</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548452</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.557929402028</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.373480902332</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.662013510361</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.809609682874</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="X43" t="n">
-        <v>930.2457131286789</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.9029448184209</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1327.01666297525</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>900.1159329885506</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>476.823312173551</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>476.823312173551</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>476.823312173551</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48424976299957</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0877085798951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>435.0877085798951</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>435.0877085798951</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>1332.080299397015</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N44" t="n">
-        <v>2229.072890214135</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.376874110148</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268076</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3576.157970121134</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3317.803060717546</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2960.313645843796</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2563.922296144143</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2152.20229731189</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1746.865027266781</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.9308927249114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>79.9308927249114</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>79.9308927249114</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>79.9308927249114</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M45" t="n">
-        <v>976.923483542031</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N45" t="n">
-        <v>991.6906023320378</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.665372287236</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C46" t="n">
-        <v>983.6928091661524</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D46" t="n">
-        <v>820.3760362929231</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457766</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F46" t="n">
-        <v>482.3060562203371</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.723616382436</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.723616382436</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1754.012148990465</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1754.012148990465</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1572.17410930956</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1345.831340999302</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487783</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>502.5422006106739</v>
       </c>
       <c r="M2" t="n">
-        <v>113.9226282079388</v>
+        <v>521.2079540534007</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>190.8306636765793</v>
+        <v>506.2917778681985</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.873471666297</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>314.5501823851508</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>115.1762876285955</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>481.069527758196</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851426</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747679</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>361.4449756170225</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>183.8904958969891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>380.3837697700394</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>225.9068206338004</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701174</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719406</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>540.5697544254429</v>
+        <v>882.2851839951734</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4022560221681</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>31.27739019491188</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>724.8082949178198</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086629</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>117.8773497409307</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510361</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>80.34697437090524</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988743</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9240,22 +9242,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>103.8510582587192</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9407,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330639</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>475.2939470053066</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7944206888707</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9650,13 +9652,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,7 +9886,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.3808743436059</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10352,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>849.7962292804214</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
@@ -10434,7 +10436,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>133.9113326837148</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059673</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>188.5153086893845</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,7 +10673,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10680,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6953511146608</v>
+        <v>356.8654072451554</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>299.8008876868062</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10911,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11060,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>335.9916254967147</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>751.2280472965109</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
         <v>921.6378271075471</v>
@@ -11157,7 +11159,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369264</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719407</v>
+        <v>276.0147300838786</v>
       </c>
       <c r="O44" t="n">
-        <v>612.4454885439166</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498226</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>36.25930981960909</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>80.60569284186499</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>62.553162207336</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23464,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>187.3391279856911</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0628013717044098</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>195.9105932200349</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>36.26376963738892</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>152.1369473363744</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.0190394819667</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.1620925624305</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>71.98949189919222</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>56.75192207444496</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.1486702010893</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>41.82635369834705</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>59.37454630891079</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>187.3654866184761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>137.8291987530666</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.33105441802958</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>88.41814881478199</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.28277819799436</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>51.1738023887361</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>243.8866413883778</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.36534422558832</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>151.4609019843753</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>171.1423423972571</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>108.3646389936609</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467432.6790954734</v>
+        <v>468350.6064762592</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467432.6790954734</v>
+        <v>471322.6539552572</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467432.6790954734</v>
+        <v>471322.6539552572</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>380683.7114855283</v>
+        <v>478787.2559450218</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380683.7114855282</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478787.2559450216</v>
+        <v>478787.2559450218</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>380683.7114855283</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380683.7114855283</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111635</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111635</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111628</v>
       </c>
       <c r="E2" t="n">
-        <v>446889.5069008822</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="F2" t="n">
-        <v>446889.5069008822</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="G2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="H2" t="n">
         <v>562030.4031374472</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>562030.4031374474</v>
       </c>
-      <c r="I2" t="n">
-        <v>562030.4031374473</v>
-      </c>
       <c r="J2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="K2" t="n">
         <v>562030.4031374472</v>
@@ -26344,16 +26346,16 @@
         <v>562030.4031374474</v>
       </c>
       <c r="M2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374471</v>
       </c>
       <c r="N2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="O2" t="n">
-        <v>446889.506900882</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="P2" t="n">
-        <v>446889.5069008821</v>
+        <v>562030.4031374477</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943097</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091335</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.6695456099</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
+        <v>58064.51385187958</v>
+      </c>
+      <c r="I4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58064.51385187963</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="N4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>46140.42348557888</v>
+        <v>58064.51385187964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174325.2932241678</v>
+        <v>169669.0795738004</v>
       </c>
       <c r="C6" t="n">
-        <v>328951.0138422883</v>
+        <v>317591.1810209451</v>
       </c>
       <c r="D6" t="n">
-        <v>328951.0138422881</v>
+        <v>340998.0146945568</v>
       </c>
       <c r="E6" t="n">
-        <v>212897.3855858217</v>
+        <v>210476.4705404976</v>
       </c>
       <c r="F6" t="n">
-        <v>345661.0535954236</v>
+        <v>426215.8270971382</v>
       </c>
       <c r="G6" t="n">
-        <v>324055.9070028282</v>
+        <v>426215.827097138</v>
       </c>
       <c r="H6" t="n">
-        <v>426215.8270971382</v>
+        <v>426215.8270971379</v>
       </c>
       <c r="I6" t="n">
-        <v>426215.827097138</v>
+        <v>426215.8270971381</v>
       </c>
       <c r="J6" t="n">
-        <v>305493.3101543808</v>
+        <v>299638.5585168491</v>
       </c>
       <c r="K6" t="n">
-        <v>426215.8270971379</v>
+        <v>407569.2267401183</v>
       </c>
       <c r="L6" t="n">
         <v>426215.8270971381</v>
       </c>
       <c r="M6" t="n">
-        <v>315406.4669880047</v>
+        <v>246151.9556419702</v>
       </c>
       <c r="N6" t="n">
+        <v>426215.827097138</v>
+      </c>
+      <c r="O6" t="n">
         <v>426215.8270971382</v>
       </c>
-      <c r="O6" t="n">
-        <v>345661.0535954235</v>
-      </c>
       <c r="P6" t="n">
-        <v>345661.0535954236</v>
+        <v>426215.8270971384</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353621</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603344</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353621</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>318.5130220887416</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.45982882070001</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.7327038606036</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.7300029736969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.8700894635079</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>231.4648942069176</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.8393065290724</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>148.1278208798298</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27913,10 +27915,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>208.8322849422569</v>
+        <v>231.4648942069176</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.2498895301399</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>38.83970484442989</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>464.230158178051</v>
       </c>
       <c r="M2" t="n">
-        <v>76.49136530850697</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.3155769623498</v>
+        <v>483.776691153969</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>292.7793411803221</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>94.42738665299515</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>160.7937153846611</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>204.9421661810884</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374945</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>503.1787950694188</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>686.4962524851969</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.78487510406481</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>94.78056922860272</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406498</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>83.23994392538583</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.0533324336321</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36370,13 +36372,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,7 +36606,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>811.4841868477985</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
@@ -37154,7 +37156,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>110.8145521713869</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>167.9041943560511</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>106.3043917586367</v>
+        <v>319.4744478891313</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37780,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>297.6795830640918</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>713.9484244620648</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
         <v>898.4659373853249</v>
@@ -37877,7 +37879,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374946</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374946</v>
+        <v>238.7351072494326</v>
       </c>
       <c r="O44" t="n">
-        <v>575.0545291878924</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374946</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>14.91628160606742</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2873023.683567497</v>
+        <v>2872327.022362406</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>363.8358429657458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>175.8993704642192</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9509012838934</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>54.52946957634275</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>194.4136036116275</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>160.962541995739</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>22.12501661004335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>228.0996351671476</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>51.29721097934932</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>176.1379046370126</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>60.43371561435711</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,19 +1341,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>24.4755279372322</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.992961581339</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>31.33921635700823</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>127.9190688477586</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1824,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.16874740712048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>133.9890678524842</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>157.6386052024379</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>47.97616502622241</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>222.1424306436064</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>95.05320471978992</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>199.079600598012</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3090588355862</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.31395773011856</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3246,10 +3246,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>73.26545632971501</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>79.91419618843439</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.59708018839068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>120.6429778048368</v>
+        <v>205.6631443644948</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>53.31896615083613</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>526.2428153423242</v>
+        <v>932.2144580460986</v>
       </c>
       <c r="C2" t="n">
-        <v>503.3824893960284</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>484.1302726214328</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>462.1937368096944</v>
+        <v>60.08457143266052</v>
       </c>
       <c r="F2" t="n">
-        <v>441.1099590394987</v>
+        <v>39.00079366246482</v>
       </c>
       <c r="G2" t="n">
-        <v>73.5990065488463</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>73.5990065488463</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
         <v>38.70213529231751</v>
@@ -4336,16 +4336,16 @@
         <v>517.6410595347468</v>
       </c>
       <c r="L2" t="n">
-        <v>977.2289161310173</v>
+        <v>996.579983777176</v>
       </c>
       <c r="M2" t="n">
-        <v>1456.167840373447</v>
+        <v>996.579983777176</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373447</v>
+        <v>1475.518908019605</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373447</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="P2" t="n">
         <v>1935.106764615876</v>
@@ -4357,25 +4357,25 @@
         <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489016</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533649</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130062</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="V2" t="n">
-        <v>1351.458990130062</v>
+        <v>1757.430632833836</v>
       </c>
       <c r="W2" t="n">
-        <v>955.0676404304086</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>947.3880456385599</v>
+        <v>949.3192843019302</v>
       </c>
       <c r="Y2" t="n">
-        <v>946.0911796338543</v>
+        <v>948.0224182972246</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>38.70213529231751</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231751</v>
+        <v>410.5729931455396</v>
       </c>
       <c r="L3" t="n">
-        <v>517.6410595347468</v>
+        <v>410.5729931455396</v>
       </c>
       <c r="M3" t="n">
-        <v>996.579983777176</v>
+        <v>410.5729931455396</v>
       </c>
       <c r="N3" t="n">
-        <v>1475.518908019605</v>
+        <v>889.5119173879689</v>
       </c>
       <c r="O3" t="n">
-        <v>1475.518908019605</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.8096550795942</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="C4" t="n">
-        <v>361.8370919585102</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="D4" t="n">
-        <v>348.755373489931</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="E4" t="n">
-        <v>348.755373489931</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>348.755373489931</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841631</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231751</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
         <v>38.70213529231751</v>
@@ -4497,7 +4497,7 @@
         <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974137</v>
       </c>
       <c r="N4" t="n">
         <v>1162.07929377345</v>
@@ -4527,13 +4527,13 @@
         <v>1192.882288656113</v>
       </c>
       <c r="W4" t="n">
-        <v>1192.882288656113</v>
+        <v>918.0298848286257</v>
       </c>
       <c r="X4" t="n">
-        <v>950.3183921019178</v>
+        <v>675.4659882744307</v>
       </c>
       <c r="Y4" t="n">
-        <v>723.9756237916598</v>
+        <v>620.3857159750946</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.775797585523</v>
+        <v>1517.344551458719</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.915471639227</v>
+        <v>1090.443821472019</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>667.1512006570197</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>645.2146648452813</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4576,16 +4576,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1862.189048931929</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1699.600622673607</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.921027881758</v>
+        <v>1534.449377714551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>1533.152511709845</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>695.3677541233694</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>695.3677541233694</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1128.080930530456</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1128.080930530456</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1128.080930530456</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548.761739098607</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>526.4132374723006</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>526.4132374723006</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502612</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675125</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="X7" t="n">
-        <v>965.2704761209305</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.9277078106726</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.7353935451185</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C8" t="n">
-        <v>439.8346635584186</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>420.5824467838229</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4819,7 +4819,7 @@
         <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.189048931929</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1465.797699232276</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.880623841354</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836649</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>1417.526784297715</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1417.526784297715</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.4296944263983</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>543.4296944263983</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>482.385537240179</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2153.149883657395</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1871.438416265424</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1596.586012437937</v>
       </c>
       <c r="X10" t="n">
-        <v>959.9384314487219</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y10" t="n">
-        <v>733.5956631384639</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291426</v>
@@ -5071,7 +5071,7 @@
         <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5123,22 +5123,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1437.433383623377</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1437.433383623377</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1437.433383623377</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>543.5554397491844</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C13" t="n">
-        <v>371.5828766281004</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D13" t="n">
-        <v>371.5828766281004</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E13" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>960.064176771508</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.72140846125</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988745</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5281,22 +5281,22 @@
         <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409524</v>
@@ -5308,16 +5308,16 @@
         <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>964.4851292537592</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.966407265231</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.68756743822</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C16" t="n">
-        <v>869.7150043171358</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D16" t="n">
-        <v>706.3982314439065</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2153.504560164655</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1910.165212390555</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1629.98076389086</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1629.98076389086</v>
       </c>
       <c r="W16" t="n">
-        <v>1260.306816359498</v>
+        <v>1355.128360063373</v>
       </c>
       <c r="X16" t="n">
-        <v>1260.306816359498</v>
+        <v>1112.564463509178</v>
       </c>
       <c r="Y16" t="n">
-        <v>1231.853536150285</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5594,13 +5594,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>184.7102578919605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7102578919605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
         <v>1021.509065974867</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>739.0807229905524</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C19" t="n">
-        <v>603.7382302102653</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D19" t="n">
-        <v>440.421457337036</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F19" t="n">
         <v>268.5596831115964</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.589460012876</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.2466917026181</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="20">
@@ -5752,34 +5752,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,13 +5831,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
         <v>821.6753975134684</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.684777446425</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W22" t="n">
-        <v>1550.684777446425</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.2543031032136</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C25" t="n">
-        <v>847.2543031032136</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6183,16 +6183,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1364.670603484896</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1089.818199657409</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X25" t="n">
-        <v>847.2543031032136</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.2543031032136</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.8257932127802</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>697.8532300916962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1864.451574370707</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1584.267125871012</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.555658479041</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1302.555658479041</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1059.991761924846</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1059.991761924846</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6545,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1125.509546729146</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>953.5369836080615</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1542.018283751469</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1542.018283751469</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1315.675515441211</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6782,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>882.9456501749507</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>710.9730870538667</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>710.9730870538667</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>544.7648812067202</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1542.018283751469</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1299.454387197274</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1073.111618887016</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6943,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291426</v>
@@ -7022,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786.1193363033792</v>
+        <v>778.6022263052664</v>
       </c>
       <c r="C37" t="n">
-        <v>614.1467731822952</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D37" t="n">
-        <v>540.1412617381386</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E37" t="n">
-        <v>373.9330558909921</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>2031.859283046744</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1751.674834547048</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1469.963367155077</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.628073325703</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y37" t="n">
-        <v>976.2853050154449</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7180,19 +7180,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2101.340160059445</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291426</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>823.7398882488801</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>651.7673251277961</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>488.4505522545668</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>322.2423464074203</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>150.3805721819807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>150.3805721819807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>150.3805721819807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1757.664925652886</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1482.812521825399</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1240.248625271204</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1013.905856960946</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291426</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N42" t="n">
-        <v>305.3113489363686</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808981</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357521</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F43" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7608,13 +7608,13 @@
         <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.483835930065</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.483835930065</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y43" t="n">
-        <v>1185.483835930065</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291426</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7727,19 +7727,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.7631605785773</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>427.7905974574933</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>373.9330558909921</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>373.9330558909921</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7851,7 +7851,7 @@
         <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.9291292906429</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>519.5412919487783</v>
       </c>
       <c r="L2" t="n">
-        <v>502.5422006106739</v>
+        <v>522.0887335865918</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534007</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988415</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>501.6211175340751</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642003</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8060,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>398.0263629780021</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681985</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.873471666297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761912</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5501823851508</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.8354367406578</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285955</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8224,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>460.1807970851426</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8467,10 +8467,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>261.2426802971181</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>380.3837697700394</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>882.2851839951734</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P12" t="n">
-        <v>31.27739019491188</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.9095497086629</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.34697437090524</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023786</v>
+        <v>397.6042905607436</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,16 +9242,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>103.8510582587192</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>855.4509062314407</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>611.7910214708227</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>325.5054530825915</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>322.1890847023786</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10430,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10591,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.3512730059673</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,22 +10828,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>968.5400018884028</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>356.8654072451554</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10904,28 +10904,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>196.7283130837754</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>751.2280472965109</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N44" t="n">
-        <v>276.0147300838786</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>507.2052537942219</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>62.553162207336</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.7990412316447</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.51462815829787</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.9105932200349</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>36.26376963738892</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>12.50455128074725</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.1620925624305</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>56.75192207444496</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>129.0261359073655</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>41.82635369834705</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>59.37454630891079</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>137.8291987530666</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.41814881478199</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>160.9917581079246</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>51.1738023887361</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>151.4609019843753</v>
+        <v>66.44073542471733</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>108.3646389936609</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478787.2559450218</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478787.2559450218</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>478787.2559450218</v>
+        <v>478787.2559450216</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>582442.6680111629</v>
+      </c>
+      <c r="C2" t="n">
         <v>582442.6680111631</v>
       </c>
-      <c r="C2" t="n">
-        <v>582442.6680111629</v>
-      </c>
       <c r="D2" t="n">
-        <v>582442.6680111628</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="E2" t="n">
         <v>562030.4031374474</v>
       </c>
       <c r="F2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="G2" t="n">
         <v>562030.4031374473</v>
@@ -26334,28 +26334,28 @@
         <v>562030.4031374472</v>
       </c>
       <c r="I2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="J2" t="n">
+        <v>562030.4031374472</v>
+      </c>
+      <c r="K2" t="n">
         <v>562030.4031374474</v>
       </c>
-      <c r="J2" t="n">
-        <v>562030.4031374474</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>562030.4031374472</v>
       </c>
-      <c r="L2" t="n">
-        <v>562030.4031374474</v>
-      </c>
       <c r="M2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="N2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="O2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="P2" t="n">
-        <v>562030.4031374477</v>
+        <v>562030.4031374471</v>
       </c>
     </row>
     <row r="3">
@@ -26420,13 +26420,13 @@
         <v>187607.6695456099</v>
       </c>
       <c r="C4" t="n">
+        <v>173998.4022791779</v>
+      </c>
+      <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="D4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="E4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="F4" t="n">
         <v>58064.51385187963</v>
@@ -26435,19 +26435,19 @@
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187958</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187963</v>
@@ -26459,7 +26459,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169669.0795738004</v>
+        <v>169669.0795738002</v>
       </c>
       <c r="C6" t="n">
-        <v>317591.1810209451</v>
+        <v>317591.1810209453</v>
       </c>
       <c r="D6" t="n">
-        <v>340998.0146945568</v>
+        <v>340998.0146945572</v>
       </c>
       <c r="E6" t="n">
-        <v>210476.4705404976</v>
+        <v>210425.4398783133</v>
       </c>
       <c r="F6" t="n">
-        <v>426215.8270971382</v>
+        <v>426164.7964349536</v>
       </c>
       <c r="G6" t="n">
-        <v>426215.827097138</v>
+        <v>426164.7964349538</v>
       </c>
       <c r="H6" t="n">
-        <v>426215.8270971379</v>
+        <v>426164.7964349536</v>
       </c>
       <c r="I6" t="n">
-        <v>426215.8270971381</v>
+        <v>426164.7964349539</v>
       </c>
       <c r="J6" t="n">
-        <v>299638.5585168491</v>
+        <v>299587.5278546645</v>
       </c>
       <c r="K6" t="n">
-        <v>407569.2267401183</v>
+        <v>407518.1960779342</v>
       </c>
       <c r="L6" t="n">
-        <v>426215.8270971381</v>
+        <v>426164.7964349536</v>
       </c>
       <c r="M6" t="n">
-        <v>246151.9556419702</v>
+        <v>246100.924979786</v>
       </c>
       <c r="N6" t="n">
-        <v>426215.827097138</v>
+        <v>426164.7964349538</v>
       </c>
       <c r="O6" t="n">
-        <v>426215.8270971382</v>
+        <v>426164.796434954</v>
       </c>
       <c r="P6" t="n">
-        <v>426215.8270971384</v>
+        <v>426164.7964349535</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>36.45982882070001</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>178.0151502607938</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>148.7327038606036</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.5498710508126</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>226.4593363808662</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>231.4648942069176</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>148.1278208798298</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.03862242150529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>231.4648942069176</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.2498895301399</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>252.9070760774666</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>483.776691153969</v>
       </c>
       <c r="L2" t="n">
+        <v>483.776691153969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>483.776691153969</v>
+      </c>
+      <c r="O2" t="n">
         <v>464.230158178051</v>
       </c>
-      <c r="M2" t="n">
-        <v>483.776691153969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>375.6271291446688</v>
       </c>
       <c r="L3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P3" t="n">
-        <v>292.7793411803221</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,10 +34865,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.259996849172</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299515</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>437.0840165728146</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>238.1458997847901</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>357.2118800478172</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>844.8942246391492</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P12" t="n">
-        <v>9.506548990083218</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.78487510406481</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977806</v>
+        <v>361.4796159561455</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.23994392538583</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>818.1712833969947</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>574.2156596605913</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>286.0644100977806</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.2265984013693</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>930.2279594557799</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>319.4744478891313</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.23994392538584</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>174.9574718789467</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>713.9484244620648</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N44" t="n">
-        <v>238.7351072494326</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.8622255806802</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
